--- a/instance/small case/IES_E9H12G7-v1.xlsx
+++ b/instance/small case/IES_E9H12G7-v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chen Binbin\OneDrive\文档\StudyCode\基于能路方法的联合优化调度\instance\small case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chen Binbin\OneDrive\文档\Github_Open_Repo\ECM_based_OEF\instance\small case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790C3659-73A7-4251-8CC0-B37B4F65F5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAE3A12-53F9-4A09-922F-1765274E1702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="16875" windowHeight="10522" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="16876" windowHeight="10523" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eNet" sheetId="1" r:id="rId1"/>
@@ -956,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F20E568-1926-410D-8D16-CE9F9B51AB30}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -9892,8 +9892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12208AF-4673-43ED-980B-64B6A6F471F1}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R2:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
